--- a/Guild Digital/Example CHT application/forms/contact/clinic-create.xlsx
+++ b/Guild Digital/Example CHT application/forms/contact/clinic-create.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="292">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -174,16 +174,10 @@
     <t xml:space="preserve">${phone1}</t>
   </si>
   <si>
-    <t xml:space="preserve">date_supervision_visit</t>
+    <t xml:space="preserve">hh_head_alive</t>
   </si>
   <si>
     <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${g_date_supervision_visit}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_head_alive</t>
   </si>
   <si>
     <t xml:space="preserve">${g_hh_head_alive}</t>
@@ -342,18 +336,6 @@
   </si>
   <si>
     <t xml:space="preserve">${phone1} != ‘’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_date_supervision_visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Supervision Visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">. &lt;= today() and (floor(decimal-date-time(.)) &gt;= (floor(decimal-date-time(today()) - 7)))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supervision Visit Date can’t be more than 7 days ago. Also can’t be a future date</t>
   </si>
   <si>
     <t xml:space="preserve">select_one select_client_category</t>
@@ -1144,17 +1126,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ57"/>
+  <dimension ref="A1:AMJ55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="E50" activeCellId="0" sqref="E50"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.3"/>
@@ -1597,23 +1579,15 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1637,9 +1611,15 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1654,17 +1634,21 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1676,21 +1660,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1702,24 +1684,30 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1729,26 +1717,20 @@
         <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1756,24 +1738,26 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1786,74 +1770,78 @@
         <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1862,37 +1850,31 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1907,7 +1889,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J31" s="2"/>
@@ -1916,7 +1898,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -1936,63 +1918,73 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="F33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -2000,59 +1992,51 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2062,180 +2046,183 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="E37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="38" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AMH38" s="6"/>
+      <c r="AMI38" s="6"/>
+      <c r="AMJ38" s="6"/>
+    </row>
+    <row r="39" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AMH39" s="6"/>
+      <c r="AMI39" s="6"/>
+      <c r="AMJ39" s="6"/>
+    </row>
+    <row r="40" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" s="7" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AMH40" s="8"/>
+      <c r="AMI40" s="8"/>
+      <c r="AMJ40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AMH40" s="6"/>
-      <c r="AMI40" s="6"/>
-      <c r="AMJ40" s="6"/>
-    </row>
-    <row r="41" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AMH41" s="6"/>
-      <c r="AMI41" s="6"/>
-      <c r="AMJ41" s="6"/>
-    </row>
-    <row r="42" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2245,52 +2232,41 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AMH42" s="8"/>
-      <c r="AMI42" s="8"/>
-      <c r="AMJ42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2299,19 +2275,21 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="L44" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2320,10 +2298,10 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
@@ -2332,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>51</v>
@@ -2344,19 +2322,21 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="L46" s="2" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>51</v>
@@ -2366,21 +2346,21 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="I47" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>51</v>
@@ -2392,12 +2372,8 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
@@ -2406,18 +2382,16 @@
         <v>27</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -2427,20 +2401,20 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="I50" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -2452,7 +2426,7 @@
         <v>27</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2461,7 +2435,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -2474,7 +2448,7 @@
         <v>27</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2483,7 +2457,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -2493,42 +2467,42 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -2537,14 +2511,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2552,50 +2522,10 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2" t="s">
-        <v>148</v>
-      </c>
+      <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N55" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2633,7 +2563,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -2642,29 +2572,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,24 +2604,24 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,24 +2631,24 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,24 +2658,24 @@
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,35 +2685,35 @@
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,90 +2723,90 @@
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,68 +2816,68 @@
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>192</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2957,13 +2887,13 @@
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D34" s="9" t="n">
         <v>1</v>
@@ -2971,13 +2901,13 @@
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D35" s="9" t="n">
         <v>2</v>
@@ -2985,13 +2915,13 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>211</v>
       </c>
       <c r="D36" s="9" t="n">
         <v>3</v>
@@ -2999,13 +2929,13 @@
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D37" s="9" t="n">
         <v>4</v>
@@ -3013,13 +2943,13 @@
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D38" s="9" t="n">
         <v>5</v>
@@ -3027,13 +2957,13 @@
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D39" s="9" t="n">
         <v>6</v>
@@ -3046,398 +2976,398 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>224</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3499,7 +3429,7 @@
       <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.36328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.3828125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.01"/>
@@ -3508,37 +3438,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C2" s="17" t="n">
         <f aca="true">NOW()</f>
-        <v>45255.9882358296</v>
+        <v>45270.8180461144</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
